--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/68_Siirt_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/68_Siirt_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09E1524-14E4-4AC6-B7EA-3E5FDF2533E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5478C6AB-AE5A-4B04-B391-79245674CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC05320F-39F4-4385-9539-F9789D21E0BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11026B3F-D667-483D-8BB2-9157D4BD1D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{C3B48518-5CC2-431C-B346-C774CA8B8FEB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{91E83F84-CE44-4168-861E-33C4FE74C0FB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{04104DF4-863C-4A9A-BC11-29E3D41FB158}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{FB38C52E-B63D-4BF2-9DD3-C7ADE075D070}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{24DADCAD-AC37-4AA4-88B9-BA7EED0992E6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A61A920F-183D-4D66-A9B3-4F2927381564}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{BEF9E6CE-6EAC-49A8-91BF-826DB653C0CC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{802DB623-150C-4F35-8955-143634B0AFA4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B26537-0D2F-4498-A9A6-25751CA93E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F56B51-EC8A-468D-8342-9D40254361FC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2413,18 +2413,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C8CB1D7B-92E8-43C2-ABF5-737B5C3FCCBF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A88F306-7712-474C-A8DD-82A82446F66C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9460237A-BF45-4D44-80EC-7C2E72F294F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{408E138A-C140-4D30-97D6-30BFD834CD68}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7CD9280B-B316-4692-B5E7-3B8B8DABEB9B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9B5946F5-D097-4694-900C-4370E8FFCF88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93D0E2DE-6154-430B-9713-8DA2504B2759}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC8CA8B8-DCB7-43C0-A8E8-E8A02DB610F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AAB8F677-48A7-48C8-BBCC-44672749FAF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CA174793-A4D1-4B5B-9A6D-B88F2EE08440}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1670928C-3D06-4DDF-A855-8A546BEAF971}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{76DC536F-2FB9-4851-B732-56AE5D3B9580}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DFF32BDF-8E94-4DF6-863E-EC2440F76399}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7574D769-C0E0-4C03-890D-94C893229784}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{49DEEC3F-8E48-4E01-A331-979855FC7A69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A28628CB-720A-495A-97A0-23044DB01A07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{079B92D0-4044-4A9E-8370-E616A38F7C1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7CD832C7-C381-4B58-A608-DF2758553975}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F27C479E-1A42-4E55-A3CA-8BEBFEA1019A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1BFE740E-0941-4411-8201-B5242AE2D0F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F94186A-21C6-4B9C-A2BE-378ADED4D4B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7AB7B9F1-229C-47B2-AA16-D05F59C081E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9A5380DA-0B35-4CEE-97F5-77803D219655}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0D2F62EA-BF57-403F-BF8E-6F5AA78680F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2437,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3D33C-F7BE-4A95-873A-2BFFFCE57522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF2F61-3A83-45AC-8D05-E6B3879BE611}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3582,18 +3582,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{31ABBAD7-4EF6-44DF-A744-5D9BBA8BCEC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A0F20672-159E-422E-8B27-8B0726872B46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0C950897-B352-406F-B3E2-8FE0E5344864}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ABB78BA7-9473-46DC-A824-62C69097ACAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{21F7C3FF-FC0C-4EC1-970F-EBFA34A7F3FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{198016AA-1C14-41C9-830A-852AAF8C5E6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50EAAD3C-51A3-4094-AECD-09D073165CA6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39826094-91F1-4450-991F-B4763774A7F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E8BC7B9F-414F-4586-8648-01CA9FF975CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{370C88D1-3EE3-4307-BC6A-7D95C5BC0E72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B060F469-2673-4990-864E-70F872F42BB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BB984C56-0E6E-4E87-9F08-1D02A2B23D6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4ED51D1D-88E9-49C3-8567-6ACC07CCDEDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8641B1A2-0E31-4DC5-8826-AD667F2C2C8F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2FE4831A-34B5-4C04-B4CC-E4E63ACBF7C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{715D63AF-DB6A-4ABA-BFC0-FFE8560261C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{29B71194-04BA-43CB-AC54-30A195AF282B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6890A25F-2360-428A-BF78-97D61670FCC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4859A2DA-083F-416A-B502-1B30D26E397C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4E7F6531-5946-405B-952B-5A8033E9C0F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1FCB8302-49E7-461A-A3EE-5048AAD4EC46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1140834C-2BD8-433B-8F52-EE5AFAA5726E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{145F16DD-A0BF-4368-BC6A-C1F63A6724B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BEEA6563-27F3-4FB5-8641-6F47D5353438}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D81B313-A6F3-4FB7-B1B0-121D16463466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896418EB-9BD5-4385-BDED-A06D9CE19693}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4751,18 +4751,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F7A23430-C2C7-479A-8421-04B66572D0DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E8344E0E-0A52-453D-9BA5-CA49E4981FF6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1EE87C3D-2272-4C2A-A049-50EAACDDE7CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2F533739-3DFB-4CAE-B8E1-4CABCC27BBD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED5EC9ED-B971-44C0-B755-A4A5C4D67BDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{50FB074D-A26D-4544-A7E3-D423CE8258B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7FCDD5B5-C240-423B-89AC-F87C8BFCC6CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA7D9DB0-C2CF-4B6B-A621-E225B1A5FF64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B139028-89FF-4515-B3BD-C30EE1E4654E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8D2E7180-392D-482D-9F6C-65A0D13C153E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CC99CD7B-0997-4CF2-BEA3-02801E87E311}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8F4ABC28-773C-4757-8307-B85F4B050956}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3F691F36-BAEC-4167-88F1-5A978D7002A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3AF38639-4C77-479D-9501-E966EE51C083}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EAFA399D-1642-4508-864B-8CAFC9A39769}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8578B74-DE9B-49CC-BD5A-4E7642307E8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{588B5FCA-220A-4F7E-AD68-B7399CAA095A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7DEF61A0-7C4E-4B8A-8B91-3DDD6D706E7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5BEC2FD6-8E49-49F7-A599-5DC34DB0C66B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FEE656C9-00A4-4A87-A087-5A5D3D3CD2AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1080496B-AF59-49DA-8BE2-0FA4C2EE6211}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9D81DA7-E447-4173-87D6-EF78CF964918}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7B0273C-028A-4828-8753-58C3B44D0E08}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{260D7D62-5A91-44F3-86D0-E1F862CC33F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A06B4-5E1F-4680-8C20-7DCFA8E5B6E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF87BF6-CD89-490E-9773-3D265166783C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5900,18 +5900,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2A98680D-3A57-406E-BDCA-05402956168A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{450BB6DC-6E48-466A-A198-9DCA4EFD525C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5950F1C6-9177-4067-8C40-DEBBAE809734}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C28C3F03-64D8-4CD1-B5A2-DEF30680B736}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{48AB5ABC-A34E-4A83-8926-D8E93E4DF324}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1556B52C-E3C0-4561-A54A-4DA349A53952}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{90AC8595-F87D-417E-96B8-9799A535DA3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A3D7AC5F-E277-4992-8D81-149FB9FB0490}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B012B682-75ED-49D3-9FBB-B0B8A0D349B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{55D48D20-08A2-43F0-AB39-64721364752B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC31FA8D-0415-417C-99C9-AF89FF2D668A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5FE43836-A803-4AF3-94C7-355E328BB0C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{05D679B1-EC84-4B88-92CC-CDE63F395730}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA1EED48-A220-4823-8FC1-7C6F597D5E11}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5B73AD7A-A13D-46EA-8A52-B1505332F78F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8F4190B8-A6B3-4D16-B7FA-8C636F5C1AF8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FF93452C-E070-40EB-9067-CD3E94E526D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E5CA007C-42E5-4AC9-84BC-3F8E5B79DE60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B999095E-6A4E-45D8-A783-C3B0BD8F49B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E7BAF11-DA4E-4F8F-878A-A63471A9B8F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D6AF70C9-FDD9-47E8-BCDA-C45B0310D472}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{42D8E40B-9088-4E3C-853E-FEA05F0AFCF1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D95C4B74-8761-4109-B331-6E4629B7E378}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{62238C52-7C27-4F88-98CB-24BA1659E5BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5924,7 +5924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4764589D-7B10-4BBB-BC15-8C9AB3CEB588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43C7C6E-7513-42A2-B49D-1CBF8774C89D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7107,18 +7107,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD19A5B0-58EF-4E9E-B4C4-5DA0DB8D79AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B805E3E5-56B4-478A-8DED-FF88CBD8A5C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{456D9908-AED9-4751-B63E-F412875CA7D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8580986D-1520-4890-B2C1-0A1FF7CBD600}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8064C8E9-CF1B-44E9-9821-701D738B3E61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{52FF4C2A-62FE-4109-A91C-01D0D6EA1186}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93CDC880-5731-442E-BC4A-7AA67D22D4CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B98B10F-5B46-44E1-8615-288BC7F4BBD0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{722159F5-D47C-4749-A152-841382B28B35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{33C95D42-F1B1-427F-BEDD-E09B933B7ABC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7C3BCBB-C166-4967-8AF5-3C38BFE6C893}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B71AF36C-D11C-45C3-8992-61F784458CCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{598D2A94-DCE3-4E10-85A5-CAF1CCBD6F20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C73D854D-33FE-4A55-B748-D04E68801F21}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A8AB772-F6E0-43F8-8D48-D3E6E1FDCAA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E3847CC1-9820-4BF9-AEAF-EF8E2331DADB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A1C141D8-5CCC-48C0-85DB-7813B14E6697}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E558BB0-F26C-4676-9F95-CAEF6661FC16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{62750CC7-5402-4FC7-8200-644B121C8568}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{304F602D-449D-4778-B57C-D1C39ED3E385}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{74961AE7-4BB6-4120-83FA-1619714F77BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8453AA5C-4062-4C02-BF7F-BEFE9E77C814}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70D4826B-F3CB-44C1-8204-98BE9F000E5E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2EB3CA41-B21D-40B0-AE90-14A8F616B85D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7131,7 +7131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85D322F-2C78-4008-AB06-B473AE6FDEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A4CF80-03A1-4267-AD19-F834AD2A5539}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8314,18 +8314,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D5EF0E6B-223A-4AA1-B66F-BE6EC2CA76F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D51B2B59-CA29-4FB4-9D26-E7990D9CA1A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{640EAEE3-0B55-4FE5-8FBE-184D8DD7EFB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8959E289-8AC1-4847-A701-0C15377789A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15C5EA68-101F-40DC-882D-C770DC89EB61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F194BD14-A74A-4609-9BB6-3103DD06A9E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB7A8393-9022-455C-9C98-98F8F6C38E3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{649BBDC5-FE95-4DCE-9E9F-E695514227FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23BA3509-4307-40B0-AA00-87E9E8EE6843}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D1E8043F-6B28-4A08-960B-2B7B4BD4A8B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FA8D44F1-E9FD-4914-ABFA-2C9CF1055E71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{52802A34-8E9F-4B2F-BEF9-CB87A2228736}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4F49445C-5FF6-4F0B-800E-8BA0C812CA35}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DAA55AB6-C761-4488-A341-EA9DB6797686}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEEA19A7-EAD5-4040-BBA2-BE14F062D103}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25B4BBEC-EB6D-4167-B697-5A7892349172}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4E7B46E6-8E7F-43C4-911E-D0843B3B582B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{74A63C74-BB61-48A0-8603-FF4B7F70DE76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B0C7D6EE-F57A-451D-8951-C2878F5778EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{765B7F10-A764-408B-8FED-3D2D249662C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4905A921-113B-431C-99E8-36CDA7F3A73F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1F67A3E2-044A-471C-9B41-D931F6F733B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6FA79FD-1F97-4727-9232-C4861D88A6D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C2DA361-1319-4A38-96E0-28CFBC8BDB9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8338,7 +8338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4768F2-D833-4545-A12A-1FC717C88C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDA5FBB-F683-457C-8C72-2BFECC0C9A4F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9513,18 +9513,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65073FD6-4C28-471D-967C-CAB12FD3E51C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F46B5529-5053-417D-BB3C-3CDB5DC5F981}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{45BCB11E-8305-4F2C-B673-DB8CA0C55689}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{635D7D2A-89A5-4366-BE7B-609ABFC2D951}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D6FA3561-3B7B-437D-BEDC-DD7C0B83B8B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BE02195A-261D-4CAC-B364-51974C15F00A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C05B1A4F-335D-46E4-BF10-77CCABFFA03B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0DE60B04-D08B-48D9-83DF-4101FAE5F206}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4D1FF603-CF33-4DD9-9701-4FCBACC84940}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E10B4D13-1751-466E-B158-A58EC876D3B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8A60A239-4D95-4842-9D27-737C8BE528F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{00C8096C-D1A3-45C7-93F3-E16A5312BBFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6363F09C-0C83-428A-AFCA-B0486259B015}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{116B0C21-B3E1-4C8B-AB0E-CB754BD090FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0A0E9289-FAC2-4B26-9D04-B687460A2D50}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5773E551-51B3-4015-82BD-40C9C1705DD9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{79A11390-8A4B-460B-B206-4C2DA02CF8C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0CAF90BC-5911-4B5A-AE7E-3C0DB9A495CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D260E2B7-2D67-4027-A37D-DA9F8757A708}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C30DF548-7A47-4264-AE8B-367AF1EE54DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E4F2F902-6490-4283-BBA0-0C9DBE28FB75}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F017EC6A-369C-4D7A-B0E9-27636D7A97F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2AB5A8A7-30E2-44E6-87DF-C44EC8CF8BEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{732E7EF5-0AF9-49FC-B19A-9734AB46F02D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9537,7 +9537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292B081-96C3-488C-A0E1-9251635D51AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B94A83-E3F6-4F9F-AE22-CBBE2875773E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10698,18 +10698,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6A780AFE-0D8B-4910-8D2F-7D3AF47AEDFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9CFBCB1D-0DEE-4D59-8C8A-45DD43E408BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E12EBA9A-874F-4C13-ABBC-5ED5C99E9260}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{369FABBB-37B6-48B9-96A2-FBF9871E4582}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B8CF68BF-61ED-4094-B1BB-450264F25B75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD33DE2F-95AD-49B5-A565-2E0202CDB433}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{88CA329A-9F5F-4C37-9729-BBAAB3A027A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{37E87B9D-AFEB-40B9-B879-BBD355F0AF00}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8311E728-5E44-4ACE-8ABD-AEAFA45CD16B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{69BE3C8D-00ED-4800-9776-23776D0D45EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C34CFF4-1BD9-4E4A-BBA0-47F8EB490555}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B773E40D-67D4-46F6-97E5-DA67804BE532}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1F0594A2-5C8A-4789-ADD9-1DD997299E04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63755A70-6FE0-439F-91FF-85C4371AEE4E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{069A175C-0B22-4BEB-ABFA-F044CBB3B08F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D3862957-56C8-4A5C-B252-F677A5D82F9B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5BCCB72A-43AE-4958-AB3A-D399B8EBF8E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{06E8B776-818A-44C4-8C53-27DF35A8E437}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE07890F-00A0-4CD8-895B-2CAF7E535171}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD2049F7-1F3B-4535-BA47-6833168F71FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{13C84F6A-4F25-470A-AC0C-BEEA9676C7A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CE7B091C-2A51-4091-B5CF-E854D4CD3694}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EFEC9224-6C38-4B9F-BEE6-929C30536E0D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E368C733-AD4E-4808-93A6-21E439C2A946}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10722,7 +10722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C211F5DE-E634-48AA-A9D3-9E35412FA377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3554A3CD-F6D4-4DE1-BC50-4B2259C53884}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11883,18 +11883,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{478ED728-2375-4647-9EE5-485C3BB4F274}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE6DBA26-990E-4A82-B98A-F7578ABF8115}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{326B82D1-EF88-4082-9AD6-BFB18DA2A37F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8AFE821B-CB13-4554-97D3-89DA71088494}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B256DB44-DBB8-4419-BDE3-D15A7B378D57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E140270-9E58-4B7F-8DFB-6D4E0739A984}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5870C0F7-F737-4D2F-83F8-96E6ECB4C514}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C58E2881-AD7F-485C-B082-4CEAB28ED04F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4A26EE41-C433-43C5-A437-ACF8A48BB3C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A8598BB-1BAB-437D-99EE-61311DD8C0AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A36060ED-C0C9-4824-A495-882842386E5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C662E6D6-4B96-462A-9E66-B8846E5B529D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3AAFA836-89F3-4688-8740-81A48FFDEF5F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2ACB8A9F-13FA-4531-B66A-5059CBDA27F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81D3FD94-332B-45F4-BD1A-98CDC4A9149F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C29CA920-57A5-482F-B331-440257D1952A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58F90849-ADCA-4B34-826E-7343D154AE92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E7B366C-6BC4-4E2D-88EA-767FCBCFFAA6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{547CF690-073C-47D4-A6A6-ECF7460492CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9F535911-4B3E-461F-84A6-6DEFFA029AEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AC42E2A8-3AA6-433C-A698-D949A4AC9348}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2496F215-0D5D-4A11-910D-EC19F450527D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{87B74D43-55AA-4BDE-9BCA-4F62F14FD7A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9B734213-CFF2-4EF5-A879-1658681CD138}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11907,7 +11907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BEEBBC-BB52-435E-B438-999531D4BB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB4C16-FE64-4CD8-85BA-3A57BBBFA309}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13064,18 +13064,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BC1D523A-D592-4C84-9EFB-F172C9C72E24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09B93D7F-30DE-47EB-BF83-5B4883C8BD2D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0AF5132-242B-4344-A47A-5383439139F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D7882EA6-12E6-4681-9880-CCA7A77D32DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{586127FF-C7A2-422F-B126-69E49BEA01A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86275091-2BEC-4277-8420-A06BFA7E13D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D9B68500-2267-4C99-AEAA-723E6E73FFD5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C5A331EC-8058-477D-9B59-B35367818268}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7529CC9A-F780-45DC-8174-44923A79B1CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0FC1D711-38D4-44C9-8672-6F56815FE195}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{563AC9B5-CC4A-4BF9-82E4-16880D6A5C29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{52449A67-B357-449E-B4E5-B5AB5EB95F3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8CE05E50-9B5C-4A77-9EB3-C9C90489E4D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{910FA523-1ABF-4B7A-A396-65DDD16A3059}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{16A21A40-78CF-411F-A649-11475A1BD373}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C29406F0-548F-4E43-A74B-5923AD1B5382}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CA60E15D-B974-4ECD-A0D9-05B56D676C1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17F89823-C176-49D5-8D75-130C0130C93A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F96E235-871C-4EDE-86AE-E783BCC77EF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{500BFCCD-5CD0-4296-A4C3-C2881704E7D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EFF07505-FA0E-4A78-8853-E60E99099498}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5661D31B-519A-4747-890B-93B2D18A7753}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8499FC41-EF9E-493B-8EEE-28CCB7AB8E8E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EA66A6C4-B13A-4853-A750-7CE7ABC0AF9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13088,7 +13088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1044004E-5FBC-4995-BAA4-612C99F9BF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7DC9E3-2A37-4065-A6DC-B5FFAB9A5248}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14237,18 +14237,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3EC62B6-51A8-4891-ACE4-CCF0FAFCB355}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{173CB5A6-B07B-4DA5-A2E5-250C7952B0EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B79D8806-70D7-407A-B270-F41D0C58D724}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6AD256B7-CF77-4D06-843A-9F558D385025}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{807E1C15-BD20-42C9-97FD-8E78CCDA7C50}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{81F24ED9-9D5B-4CDB-A2AE-7544EF30D302}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8CE830E1-14A8-4D71-9731-621003001349}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D336BA66-2FF7-4B2E-9D32-D7F44B4A5694}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA7DF10B-04B6-42C0-9DB1-B64BE4873FB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{53626E1B-F90B-4806-A247-01AE39D72BA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A16DF74A-A553-4936-9408-522B2C4EA0B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C965235-21FB-4EF3-91B3-130129CE985E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{924B3520-0BA7-42D8-87CE-BAD9B00C72AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A98C7322-0653-4701-82DB-D0E63ED79BA6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C2046B95-697E-4A75-A4CA-CDD393999BF0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0290B7E0-A8F8-4BD8-9FA9-F88E875698A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0337E87A-C2B9-4735-91B1-778921008793}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04E80336-1160-488C-9B58-58783513D142}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{99F3E18F-E250-49BE-A9D3-0D517167F1B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2FD97F45-DDC2-46FF-A53D-FDB130A0F429}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6360B090-F4DE-44BA-B348-3F610F12AE06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28B87B66-5DA1-4DFF-B860-D21D73627E17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC7E1C7E-E456-4255-B87C-61278DA71AF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC5DD987-95C6-4DC4-B1D5-02CE9CEE63A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14261,7 +14261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BD1DC8-6D2C-4D77-8D05-A3F62E141ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F94EF7A-7E5F-4613-9660-534848CFD923}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15406,18 +15406,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E46A9BA0-CD0C-41CD-8BFA-CC6DC29D0CC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{64B4CB26-C733-4EAC-B5A2-D6BA23BA15CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7FDD9A84-4425-4A59-B80D-F0B1A25965FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{05986716-7B91-4920-BBC6-C3B212AEF626}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4D7E4B8-862E-45E8-A38E-4AB2A711B6DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{721B136E-11AC-43CB-B7F4-DAC06C068886}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{90D24DB4-A069-41AB-8A73-19F5437904BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EF2F1C7A-1BFF-4668-94ED-6489BC339CE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80B9FDA5-2D48-4521-93CC-36A7A197C9C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A598837B-5E6E-4271-800D-EF7221DD554D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{44C0B76E-CD28-451C-A1BA-0525AA091108}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FA47D293-D4EB-4741-B56D-36C5A8D8CE5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B04D55C-51F0-4BBD-9612-AD33E34B089B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9415BCC8-E801-4DC3-8135-58A663660AAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{944F36E8-9216-43BB-B098-CA2E9B136ACD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3D52445C-2718-4742-899E-127D7AC5BEF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{26A01D16-883B-41A7-B80E-76DE9B29A58A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{410FC91F-E797-4913-BF14-C297B2303BE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DBEE0C58-9122-4E65-BECC-F0DF1E16DF89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D8D8EE00-4377-40B3-B470-D62A0FCC5334}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5CA8F11-9E89-4A1A-8BC7-BEAA2B6832B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7421EFA9-0F92-490E-86AB-AD9E76B6FB4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{79807FA6-7C9E-4AC0-9622-F52C2447BA16}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{956EC67F-6D15-4AE1-B574-8B3BB9952248}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
